--- a/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -885,7 +886,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -896,17 +897,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -916,13 +937,217 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0658</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009956</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发恒誉混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>10</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1094,7 +1095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,17 +1106,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1125,14 +1146,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6</v>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -1141,13 +1184,309 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>10</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>1.54</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
@@ -6,10 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -504,36 +484,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>870009</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>19.58</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.8028</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.92</v>
       </c>
     </row>
     <row r="3">
@@ -542,36 +500,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>870008</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发资管乾利一年持有期债券A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.66</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1501</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -580,300 +516,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009956</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发恒誉混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>14.18</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>29.01</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1446</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011410</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中信建投量化进取6个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>13.01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1431</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>872019</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>广发资管平衡精选一年持有混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>93.94</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.10</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1095</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>872014</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发资管乾利一年持有期债券C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>11.57</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>20.10</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006887</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺德新生活混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.27</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.66</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0638</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>011411</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中信建投量化进取6个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.39</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.10</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0312</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009957</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发恒誉混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>29.01</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0011</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006888</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>诺德新生活混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>88.66</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>
@@ -882,6 +532,328 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>870009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6833</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003655</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新财富灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>45.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>872019</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发资管平衡精选一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0914</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银恒盛混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>31.58</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1089,13 +1061,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1156,22 +1128,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.22</t>
+          <t>19.58</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6833</t>
+          <t>0.8028</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1184,36 +1156,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003655</t>
+          <t>870008</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>信达澳银新财富灵活配置混合</t>
+          <t>广发资管乾利一年持有期债券A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8.95</t>
+          <t>17.66</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45.05</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.30</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1164</t>
+          <t>0.1501</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -1222,36 +1194,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>872019</t>
+          <t>009956</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发资管平衡精选一年持有混合C</t>
+          <t>广发恒誉混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.50</t>
+          <t>14.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>29.01</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.09</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0914</t>
+          <t>0.1446</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -1260,36 +1232,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>012005</t>
+          <t>011410</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>信达澳银恒盛混合A</t>
+          <t>中信建投量化进取6个月持有期混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>13.01</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>31.58</t>
+          <t>94.39</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>1.10</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0147</t>
+          <t>0.1431</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -1298,36 +1270,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001731</t>
+          <t>872019</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发百发大数据策略价值灵活配置混合A</t>
+          <t>广发资管平衡精选一年持有混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>93.94</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>4.10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.1095</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1336,32 +1308,32 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001732</t>
+          <t>872014</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发百发大数据策略价值灵活配置混合E</t>
+          <t>广发资管乾利一年持有期债券C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>11.57</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>87.68</t>
+          <t>20.10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.86</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0063</t>
+          <t>0.0983</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -1374,120 +1346,148 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>012006</t>
+          <t>006887</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>信达澳银恒盛混合C</t>
+          <t>诺德新生活混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>2.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31.58</t>
+          <t>88.66</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0.92</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011411</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投量化进取6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009957</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发恒誉混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>29.01</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>0.0011</t>
         </is>
       </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+      <c r="H11" t="n">
         <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
+++ b/数据整理/stocks/A股/上证主板/601882-海天精工.xlsx
@@ -7,9 +7,10 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,14 +485,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.92</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="3">
@@ -500,14 +501,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="4">
@@ -516,13 +517,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q4</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>10</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>1.54</v>
       </c>
     </row>
@@ -532,6 +549,136 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0842</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -853,7 +1000,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1061,7 +1208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
